--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.95580443025989</v>
+        <v>24.44575933333333</v>
       </c>
       <c r="H2">
-        <v>2.95580443025989</v>
+        <v>73.337278</v>
       </c>
       <c r="I2">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="J2">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N2">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O2">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P2">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q2">
-        <v>95.32246760038213</v>
+        <v>3121.722823128337</v>
       </c>
       <c r="R2">
-        <v>95.32246760038213</v>
+        <v>28095.50540815504</v>
       </c>
       <c r="S2">
-        <v>0.07108703414470999</v>
+        <v>0.3854275900331257</v>
       </c>
       <c r="T2">
-        <v>0.07108703414470999</v>
+        <v>0.3854275900331256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.95580443025989</v>
+        <v>24.44575933333333</v>
       </c>
       <c r="H3">
-        <v>2.95580443025989</v>
+        <v>73.337278</v>
       </c>
       <c r="I3">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="J3">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N3">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O3">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P3">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q3">
-        <v>1.240198645727145</v>
+        <v>10.56349337453356</v>
       </c>
       <c r="R3">
-        <v>1.240198645727145</v>
+        <v>95.07144037080199</v>
       </c>
       <c r="S3">
-        <v>0.0009248820943728405</v>
+        <v>0.001304235521332182</v>
       </c>
       <c r="T3">
-        <v>0.0009248820943728405</v>
+        <v>0.001304235521332182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.95580443025989</v>
+        <v>24.44575933333333</v>
       </c>
       <c r="H4">
-        <v>2.95580443025989</v>
+        <v>73.337278</v>
       </c>
       <c r="I4">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="J4">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N4">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O4">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P4">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q4">
-        <v>9.697311716491079</v>
+        <v>116.6808315859667</v>
       </c>
       <c r="R4">
-        <v>9.697311716491079</v>
+        <v>1050.1274842737</v>
       </c>
       <c r="S4">
-        <v>0.007231801132048475</v>
+        <v>0.01440615143280813</v>
       </c>
       <c r="T4">
-        <v>0.007231801132048475</v>
+        <v>0.01440615143280813</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.95580443025989</v>
+        <v>24.44575933333333</v>
       </c>
       <c r="H5">
-        <v>2.95580443025989</v>
+        <v>73.337278</v>
       </c>
       <c r="I5">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="J5">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.412075094186404</v>
+        <v>0.751186</v>
       </c>
       <c r="N5">
-        <v>0.412075094186404</v>
+        <v>2.253558</v>
       </c>
       <c r="O5">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="P5">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="Q5">
-        <v>1.218013388995934</v>
+        <v>18.36331217056933</v>
       </c>
       <c r="R5">
-        <v>1.218013388995934</v>
+        <v>165.269809535124</v>
       </c>
       <c r="S5">
-        <v>0.0009083373684287713</v>
+        <v>0.002267250347305268</v>
       </c>
       <c r="T5">
-        <v>0.0009083373684287713</v>
+        <v>0.002267250347305267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.0251359173134</v>
+        <v>14.28901333333333</v>
       </c>
       <c r="H6">
-        <v>14.0251359173134</v>
+        <v>42.86704</v>
       </c>
       <c r="I6">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="J6">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N6">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O6">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P6">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q6">
-        <v>452.3000745186358</v>
+        <v>1824.706626389316</v>
       </c>
       <c r="R6">
-        <v>452.3000745186358</v>
+        <v>16422.35963750384</v>
       </c>
       <c r="S6">
-        <v>0.3373042227122564</v>
+        <v>0.2252897894445114</v>
       </c>
       <c r="T6">
-        <v>0.3373042227122564</v>
+        <v>0.2252897894445114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.0251359173134</v>
+        <v>14.28901333333333</v>
       </c>
       <c r="H7">
-        <v>14.0251359173134</v>
+        <v>42.86704</v>
       </c>
       <c r="I7">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="J7">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N7">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O7">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P7">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q7">
-        <v>5.884677075628393</v>
+        <v>6.174563678595557</v>
       </c>
       <c r="R7">
-        <v>5.884677075628393</v>
+        <v>55.57107310736001</v>
       </c>
       <c r="S7">
-        <v>0.004388516692198081</v>
+        <v>0.0007623505778652912</v>
       </c>
       <c r="T7">
-        <v>0.004388516692198081</v>
+        <v>0.0007623505778652911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.0251359173134</v>
+        <v>14.28901333333333</v>
       </c>
       <c r="H8">
-        <v>14.0251359173134</v>
+        <v>42.86704</v>
       </c>
       <c r="I8">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="J8">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N8">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O8">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P8">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q8">
-        <v>46.01323195269205</v>
+        <v>68.20217509066669</v>
       </c>
       <c r="R8">
-        <v>46.01323195269205</v>
+        <v>613.8195758160001</v>
       </c>
       <c r="S8">
-        <v>0.03431451443999722</v>
+        <v>0.008420670722415462</v>
       </c>
       <c r="T8">
-        <v>0.03431451443999722</v>
+        <v>0.008420670722415461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.0251359173134</v>
+        <v>14.28901333333333</v>
       </c>
       <c r="H9">
-        <v>14.0251359173134</v>
+        <v>42.86704</v>
       </c>
       <c r="I9">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="J9">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.412075094186404</v>
+        <v>0.751186</v>
       </c>
       <c r="N9">
-        <v>0.412075094186404</v>
+        <v>2.253558</v>
       </c>
       <c r="O9">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="P9">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="Q9">
-        <v>5.779409204104036</v>
+        <v>10.73370676981333</v>
       </c>
       <c r="R9">
-        <v>5.779409204104036</v>
+        <v>96.60336092832</v>
       </c>
       <c r="S9">
-        <v>0.00431001284136656</v>
+        <v>0.001325251140735668</v>
       </c>
       <c r="T9">
-        <v>0.00431001284136656</v>
+        <v>0.001325251140735668</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>19.8965226178398</v>
+        <v>0.480005</v>
       </c>
       <c r="H10">
-        <v>19.8965226178398</v>
+        <v>1.440015</v>
       </c>
       <c r="I10">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999337</v>
       </c>
       <c r="J10">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999336</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N10">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O10">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P10">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q10">
-        <v>641.6478753408413</v>
+        <v>61.29662585986834</v>
       </c>
       <c r="R10">
-        <v>641.6478753408413</v>
+        <v>551.669632738815</v>
       </c>
       <c r="S10">
-        <v>0.4785109489030072</v>
+        <v>0.00756806805757846</v>
       </c>
       <c r="T10">
-        <v>0.4785109489030072</v>
+        <v>0.007568068057578458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>19.8965226178398</v>
+        <v>0.480005</v>
       </c>
       <c r="H11">
-        <v>19.8965226178398</v>
+        <v>1.440015</v>
       </c>
       <c r="I11">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999337</v>
       </c>
       <c r="J11">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999336</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N11">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O11">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P11">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q11">
-        <v>8.348197922944049</v>
+        <v>0.2074196005983333</v>
       </c>
       <c r="R11">
-        <v>8.348197922944049</v>
+        <v>1.866776405385</v>
       </c>
       <c r="S11">
-        <v>0.006225695218917535</v>
+        <v>2.560933219052884E-05</v>
       </c>
       <c r="T11">
-        <v>0.006225695218917535</v>
+        <v>2.560933219052883E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>19.8965226178398</v>
+        <v>0.480005</v>
       </c>
       <c r="H12">
-        <v>19.8965226178398</v>
+        <v>1.440015</v>
       </c>
       <c r="I12">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999337</v>
       </c>
       <c r="J12">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999336</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N12">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O12">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P12">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q12">
-        <v>65.27589576771935</v>
+        <v>2.29108786525</v>
       </c>
       <c r="R12">
-        <v>65.27589576771935</v>
+        <v>20.61979078725</v>
       </c>
       <c r="S12">
-        <v>0.04867970739825658</v>
+        <v>0.000282872158897351</v>
       </c>
       <c r="T12">
-        <v>0.04867970739825658</v>
+        <v>0.0002828721588973509</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.480005</v>
+      </c>
+      <c r="H13">
+        <v>1.440015</v>
+      </c>
+      <c r="I13">
+        <v>0.007921068169999337</v>
+      </c>
+      <c r="J13">
+        <v>0.007921068169999336</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.751186</v>
+      </c>
+      <c r="N13">
+        <v>2.253558</v>
+      </c>
+      <c r="O13">
+        <v>0.00562028004021099</v>
+      </c>
+      <c r="P13">
+        <v>0.00562028004021099</v>
+      </c>
+      <c r="Q13">
+        <v>0.36057303593</v>
+      </c>
+      <c r="R13">
+        <v>3.24515732337</v>
+      </c>
+      <c r="S13">
+        <v>4.451862133299787E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.451862133299786E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>21.38374133333333</v>
+      </c>
+      <c r="H14">
+        <v>64.151224</v>
+      </c>
+      <c r="I14">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="J14">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>127.6999736666667</v>
+      </c>
+      <c r="N14">
+        <v>383.099921</v>
+      </c>
+      <c r="O14">
+        <v>0.9554352891750322</v>
+      </c>
+      <c r="P14">
+        <v>0.9554352891750322</v>
+      </c>
+      <c r="Q14">
+        <v>2730.703205161478</v>
+      </c>
+      <c r="R14">
+        <v>24576.3288464533</v>
+      </c>
+      <c r="S14">
+        <v>0.3371498416398166</v>
+      </c>
+      <c r="T14">
+        <v>0.3371498416398166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>21.38374133333333</v>
+      </c>
+      <c r="H15">
+        <v>64.151224</v>
+      </c>
+      <c r="I15">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="J15">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4321196666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.296359</v>
+      </c>
+      <c r="O15">
+        <v>0.003233065495828321</v>
+      </c>
+      <c r="P15">
+        <v>0.003233065495828321</v>
+      </c>
+      <c r="Q15">
+        <v>9.240335177046223</v>
+      </c>
+      <c r="R15">
+        <v>83.163016593416</v>
+      </c>
+      <c r="S15">
+        <v>0.001140870064440319</v>
+      </c>
+      <c r="T15">
+        <v>0.001140870064440319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.8965226178398</v>
-      </c>
-      <c r="H13">
-        <v>19.8965226178398</v>
-      </c>
-      <c r="I13">
-        <v>0.5395306785746216</v>
-      </c>
-      <c r="J13">
-        <v>0.5395306785746216</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.412075094186404</v>
-      </c>
-      <c r="N13">
-        <v>0.412075094186404</v>
-      </c>
-      <c r="O13">
-        <v>0.01133267726423549</v>
-      </c>
-      <c r="P13">
-        <v>0.01133267726423549</v>
-      </c>
-      <c r="Q13">
-        <v>8.198861431728252</v>
-      </c>
-      <c r="R13">
-        <v>8.198861431728252</v>
-      </c>
-      <c r="S13">
-        <v>0.006114327054440161</v>
-      </c>
-      <c r="T13">
-        <v>0.006114327054440161</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>21.38374133333333</v>
+      </c>
+      <c r="H16">
+        <v>64.151224</v>
+      </c>
+      <c r="I16">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="J16">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.77305</v>
+      </c>
+      <c r="N16">
+        <v>14.31915</v>
+      </c>
+      <c r="O16">
+        <v>0.03571136528892854</v>
+      </c>
+      <c r="P16">
+        <v>0.03571136528892854</v>
+      </c>
+      <c r="Q16">
+        <v>102.0656665710667</v>
+      </c>
+      <c r="R16">
+        <v>918.5909991396002</v>
+      </c>
+      <c r="S16">
+        <v>0.01260167097480759</v>
+      </c>
+      <c r="T16">
+        <v>0.01260167097480759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>21.38374133333333</v>
+      </c>
+      <c r="H17">
+        <v>64.151224</v>
+      </c>
+      <c r="I17">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="J17">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.751186</v>
+      </c>
+      <c r="N17">
+        <v>2.253558</v>
+      </c>
+      <c r="O17">
+        <v>0.00562028004021099</v>
+      </c>
+      <c r="P17">
+        <v>0.00562028004021099</v>
+      </c>
+      <c r="Q17">
+        <v>16.06316711722133</v>
+      </c>
+      <c r="R17">
+        <v>144.568504054992</v>
+      </c>
+      <c r="S17">
+        <v>0.001983259930837057</v>
+      </c>
+      <c r="T17">
+        <v>0.001983259930837057</v>
       </c>
     </row>
   </sheetData>
